--- a/Data/EC/NIT-9017568499.xlsx
+++ b/Data/EC/NIT-9017568499.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D4D73B-DB8B-4A80-8EB1-4256B2EDD587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3952F2-EB6A-4B90-9A64-FF0E81670D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{100C05F9-6B05-43CC-A2DB-6498F91A2B83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72C6AB97-37FE-42A2-BDE6-68A83C9A71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,72 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33102676</t>
+  </si>
+  <si>
+    <t>YULIBETH SALAS ZAPATEIRO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>8851194</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO DIAZ CASTRO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>73184570</t>
+  </si>
+  <si>
+    <t>MIKESON DAVID GARCIA CUESTA</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1048934950</t>
+  </si>
+  <si>
+    <t>VERONICA CONTRERAS MARTELO</t>
+  </si>
+  <si>
     <t>1129538702</t>
   </si>
   <si>
@@ -74,130 +140,61 @@
     <t>2402</t>
   </si>
   <si>
-    <t>1048934950</t>
-  </si>
-  <si>
-    <t>VERONICA CONTRERAS MARTELO</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>73184570</t>
-  </si>
-  <si>
-    <t>MIKESON DAVID GARCIA CUESTA</t>
+    <t>1047374111</t>
+  </si>
+  <si>
+    <t>JHENNIFER PAOLA ARRIETA HARRIS</t>
   </si>
   <si>
     <t>PPT</t>
   </si>
   <si>
+    <t>5969384</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL AGUIRRE ESCOBAR</t>
+  </si>
+  <si>
+    <t>1047492458</t>
+  </si>
+  <si>
+    <t>JULIA TATIANA REYES DE LAS AGUAS</t>
+  </si>
+  <si>
+    <t>1047413639</t>
+  </si>
+  <si>
+    <t>WADNER GRISOLLES BARRIOS</t>
+  </si>
+  <si>
+    <t>5763738</t>
+  </si>
+  <si>
+    <t>ALEJANDRO JOSE ANDRADE</t>
+  </si>
+  <si>
     <t>5606805</t>
   </si>
   <si>
     <t>YOELIS CAROLINA TERAN TIRAJARA</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
     <t>1143353452</t>
   </si>
   <si>
     <t>FABIAN ALBERTO BELALCAZAR PADILLA</t>
   </si>
   <si>
-    <t>2405</t>
-  </si>
-  <si>
     <t>22804597</t>
   </si>
   <si>
     <t>LEIDY LAURA RICO RODRIGUEZ</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1047413639</t>
-  </si>
-  <si>
-    <t>WADNER GRISOLLES BARRIOS</t>
-  </si>
-  <si>
-    <t>8851194</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO DIAZ CASTRO</t>
-  </si>
-  <si>
-    <t>5763738</t>
-  </si>
-  <si>
-    <t>ALEJANDRO JOSE ANDRADE</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>5969384</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL AGUIRRE ESCOBAR</t>
-  </si>
-  <si>
-    <t>1047374111</t>
-  </si>
-  <si>
-    <t>JHENNIFER PAOLA ARRIETA HARRIS</t>
-  </si>
-  <si>
     <t>1044907789</t>
   </si>
   <si>
     <t>ADRIAN ESTEBAN ALVAREZ OCHOA</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>33102676</t>
-  </si>
-  <si>
-    <t>YULIBETH SALAS ZAPATEIRO</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1047492458</t>
-  </si>
-  <si>
-    <t>JULIA TATIANA REYES DE LAS AGUAS</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -611,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13CDFB7-8482-25E8-E3F0-DCD198A64539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6C2AB6-C890-262D-2AA9-93622712E617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21BF44C-B9E6-4E86-ADCB-86183821761B}">
-  <dimension ref="B2:J114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC383563-0477-4375-BC0D-CCE8515EBFA5}">
+  <dimension ref="B2:J106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4723883</v>
+        <v>4359073</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>36400</v>
       </c>
       <c r="G16" s="18">
-        <v>616000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1177,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1197,16 +1194,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1223,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>1733</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1246,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1269,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1292,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1315,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1338,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1361,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1384,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1404,22 +1401,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1430,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F29" s="18">
         <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1459,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1473,22 +1470,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F31" s="18">
         <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,22 +1516,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1568,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1591,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1614,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1637,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1666,13 +1663,13 @@
         <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,22 +1677,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>1733</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,22 +1700,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1729,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1752,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>616000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1775,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>34</v>
@@ -1804,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1818,16 +1815,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1844,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1867,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1890,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1913,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1936,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1959,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1982,16 +1979,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F53" s="18">
-        <v>36400</v>
+        <v>52000</v>
       </c>
       <c r="G53" s="18">
         <v>1300000</v>
@@ -2002,16 +1999,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2025,16 +2022,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2048,16 +2045,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2071,16 +2068,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2094,16 +2091,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2117,16 +2114,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2140,16 +2137,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2163,16 +2160,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2186,16 +2183,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2209,16 +2206,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
@@ -2232,19 +2229,19 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G64" s="18">
         <v>1300000</v>
@@ -2258,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2281,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2301,16 +2298,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2324,16 +2321,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2347,16 +2344,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2370,16 +2367,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2393,16 +2390,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2416,16 +2413,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2439,16 +2436,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
@@ -2462,16 +2459,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
@@ -2485,16 +2482,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -2508,16 +2505,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F76" s="18">
         <v>52000</v>
@@ -2531,16 +2528,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
@@ -2554,16 +2551,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F78" s="18">
         <v>52000</v>
@@ -2580,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F79" s="18">
         <v>52000</v>
@@ -2603,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -2626,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2649,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -2669,16 +2666,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F83" s="18">
         <v>52000</v>
@@ -2692,16 +2689,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2718,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
@@ -2738,16 +2735,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
@@ -2761,16 +2758,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F87" s="18">
         <v>52000</v>
@@ -2787,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -2810,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -2833,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2856,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F91" s="18">
         <v>52000</v>
@@ -2879,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F92" s="18">
         <v>52000</v>
@@ -2902,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -2922,16 +2919,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F94" s="18">
         <v>52000</v>
@@ -2948,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F95" s="18">
         <v>52000</v>
@@ -2971,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F96" s="18">
         <v>52000</v>
@@ -2994,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F97" s="18">
         <v>52000</v>
@@ -3014,16 +3011,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
         <v>52000</v>
@@ -3046,253 +3043,69 @@
         <v>52</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F99" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F100" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F102" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F104" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="B100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G100" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F105" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="B105" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F106" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F107" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F108" s="24">
-        <v>49348</v>
-      </c>
-      <c r="G108" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="26"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
+      <c r="B106" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="32"/>
-      <c r="H114" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H105:J105"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
